--- a/medicine/Enfance/J.S._Fletcher/J.S._Fletcher.xlsx
+++ b/medicine/Enfance/J.S._Fletcher/J.S._Fletcher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Smith Fletcher (Halifax, Yorkshire de l'Ouest, 7 février 1863 - Dorking, Surrey, 30 janvier 1935), plus connu sous la signature J.S. Fletcher, est un journaliste, un poète et un écrivain britannique de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un ecclésiastique, il fréquente une école de Wakefield avant de se rendre à Londres où il se destine à l'étude du Droit. Dès l'âge de 18 ans, il embrasse la double carrière d'écrivain et de journaliste. 
 Pour des magazines londoniens, il rédige une série d'articles sous le pseudonyme de Son of the Soil, concernant l'histoire et les coutumes de régions rurales d'Angleterre, notamment de son Yorkshire natal.  Il aborde la littérature par la poésie, s'intéresse ensuite à la publication d'essais, d'ouvrages religieux et surtout de romans historiques, dont plusieurs monographies romancées de grands personnages, avant de publier un premier roman, Frank Carisbroke's Stratagem; or, Lost and Won, en 1888.
@@ -546,16 +560,100 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Inspecteur Skarratt de Scotland Yard
-Marchester Royal (1909) Publié en français sous le titre Vengeance, Paris, Librairie des Champs-Élysées, Le Masque no 98, 1931
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Inspecteur Skarratt de Scotland Yard</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marchester Royal (1909) Publié en français sous le titre Vengeance, Paris, Librairie des Champs-Élysées, Le Masque no 98, 1931
 The Wolves and the Lamb (1914)
-The Secret of Secrets (1929)
-Série policière Sergent Charlesworth
-The Borgia Cabinet (1930)
-The Burma Ruby (1932)
-Série policière Ronald Camberwell
-Murder at Wrides Park (1931) Publié en français sous le titre La Canne à épée, Paris, Éditions des Loisirs, coll. Loisirs-Police, 1939
+The Secret of Secrets (1929)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série policière Sergent Charlesworth</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Borgia Cabinet (1930)
+The Burma Ruby (1932)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série policière Ronald Camberwell</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Murder at Wrides Park (1931) Publié en français sous le titre La Canne à épée, Paris, Éditions des Loisirs, coll. Loisirs-Police, 1939
 Murder in Four Degrees (1931) Publié en français sous le titre Brelan de meurtres, Paris, Éditions des Loisirs, coll. Loisirs-Police, 1939
 Murder in the Squire's Pew (1932) Publié en français sous le titre Le Bracelet d'acier, Paris, Éditions R. Simon, coll. Police-Secours, 1939
 Murder of the Ninth Baronet (1932) Publié en français sous le titre Le Mort de Linwood, Paris, Éditions des Loisirs, coll. Loisirs-Police, 1939
@@ -565,8 +663,47 @@
 Murder of the Secret Agent (1934) Publié en français sous le titre Meurtre de l'agent secret, Paris, Rombaldi, coll. Évasion no 3, 1946
 The Ebony Box (1934)
 The Eleventh Hour (1935)
-Todmanhaw Grange ou The Mill House Murder (1937), roman posthume
-Autres romans policiers
+Todmanhaw Grange ou The Mill House Murder (1937), roman posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Andrewlina (1889)
 The Winding Way (1890)
 Old Lattimer's Legacy (1892)
@@ -644,7 +781,47 @@
 The Yorkshire Moorland Murder (1930)
 The Guarded Room (1931)
 The Solution of the Mystery (1932) Publié en français sous le titre Le Silence de l'accusé, Paris, Éditions de France, coll. À ne pas lire la nuit no 20, 1933
-Autres romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Frank Carisbroke's Stratagem; or, Lost and Won (1888)
 Mr. Spivey's Clerk (1890)
 Through Storm and Stress (1892)
@@ -680,9 +857,47 @@
 Heronshaw Main: The Story of a Yorkshire Colliery (1918)
 The Wild Oat (1929)
 The Grocer's Wife (1933)
-Nouvelles
-Recueils de nouvelles
-Série humoristique Mr. Poskitt, fermier du Yorkshire
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Série humoristique Mr. Poskitt, fermier du Yorkshire
 Mr. Poskitt (1907)
 Mr Poskitt's Nightcaps (1910)
 Autres recueils de nouvelles
@@ -713,9 +928,43 @@
 The Man in the Fur Coat and Other Stories (1932)
 The Murder in Medora Mansions and Other Stories (1933)
 Find the Woman (1933) Publié en français sous le titre La Visiteuse de minuit, Paris, Le Livre nationale no 940, 1934.
-The Carrismore Ruby and Other Stories (1935)
-Poésie
-The Bride of Venice (1879)
+The Carrismore Ruby and Other Stories (1935)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Bride of Venice (1879)
 Songs after Sunset (1881)
 Early Poems (1882)
 Anima Chisti (1884)
@@ -723,12 +972,80 @@
 Poems, Chiefly Against Pessimism (1893)
 Ballads of Revolt (1897)
 Leet-Livvy (1915)
-Verses Written in Early Youth (1931)
-Littérature d'enfance et de jeunesse
-The Juvenile Poems of Joseph S. Fletcher (1879)
-The Aventures of Turco Bullworthy (1912)
-Autres publications
-Jesus Calls Thee! Thoughts or One in Indecision (1887)
+Verses Written in Early Youth (1931)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Juvenile Poems of Joseph S. Fletcher (1879)
+The Aventures of Turco Bullworthy (1912)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jesus Calls Thee! Thoughts or One in Indecision (1887)
 Our Lady's Month: a Manuel of Devotion for the Month of May (1887)
 One of His Little Ones and Others Tales in Prose and Verse (1888)
 Where Shall We Go for a Holiday? (1894)
@@ -750,37 +1067,73 @@
 Yorskshiremen and the Restauration (1921)
 Halifax (1923)
 The Life and Works of St. Wilfrid of Ripon (1925)
-The Reformation in Northern England (1925)
-Traduction française non-identifiée
-Affaire singulière, Paris, Librairie des Champs-Élysées, Le Masque no 403, 1951. Traduction française de René Lécuyer</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>J.S._Fletcher</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+The Reformation in Northern England (1925)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Traduction française non-identifiée</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Affaire singulière, Paris, Librairie des Champs-Élysées, Le Masque no 403, 1951. Traduction française de René Lécuyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Adaptations cinématographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1920 : The Town of Crooked Ways, film muet britannique de Bert Wynne (en)
 1921 : The Marriage Lines, film muet britannique de Wilfred Noy, d'après le roman éponyme publié en 1914
@@ -788,31 +1141,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>J.S._Fletcher</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J.S._Fletcher</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
